--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -594,112 +594,112 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>148.4882251407738</v>
+        <v>74.90263249</v>
       </c>
       <c r="K2">
-        <v>150.9542356062379</v>
+        <v>76.146574058</v>
       </c>
       <c r="L2">
-        <v>153.420246071702</v>
+        <v>77.390515626</v>
       </c>
       <c r="M2">
-        <v>155.8862565371662</v>
+        <v>78.63445719400001</v>
       </c>
       <c r="N2">
-        <v>158.3522670026302</v>
+        <v>79.878398762</v>
       </c>
       <c r="O2">
-        <v>160.8182774680943</v>
+        <v>81.12234033</v>
       </c>
       <c r="P2">
-        <v>181.7908198244234</v>
+        <v>91.70162115181461</v>
       </c>
       <c r="Q2">
-        <v>194.5656716177482</v>
+        <v>98.14570133448539</v>
       </c>
       <c r="R2">
-        <v>200.5210763003223</v>
+        <v>101.149814878473</v>
       </c>
       <c r="S2">
-        <v>208.0156040363752</v>
+        <v>104.93031569709</v>
       </c>
       <c r="T2">
-        <v>214.022369154</v>
+        <v>107.960337233361</v>
       </c>
       <c r="U2">
-        <v>219.8212192283728</v>
+        <v>110.885479180297</v>
       </c>
       <c r="V2">
-        <v>226.0327285292785</v>
+        <v>114.018780813695</v>
       </c>
       <c r="W2">
-        <v>232.3472084455447</v>
+        <v>117.204024411867</v>
       </c>
       <c r="X2">
-        <v>238.1842840074911</v>
+        <v>120.148448626099</v>
       </c>
       <c r="Y2">
-        <v>244.0140923732554</v>
+        <v>123.089207013466</v>
       </c>
       <c r="Z2">
-        <v>250.0163005511986</v>
+        <v>126.116929870647</v>
       </c>
       <c r="AA2">
-        <v>255.450169387589</v>
+        <v>128.857962569133</v>
       </c>
       <c r="AB2">
-        <v>260.1523483323158</v>
+        <v>131.229905402076</v>
       </c>
       <c r="AC2">
-        <v>264.8376369730856</v>
+        <v>133.593328177427</v>
       </c>
       <c r="AD2">
-        <v>269.9639413860002</v>
+        <v>136.179214668483</v>
       </c>
       <c r="AE2">
-        <v>275.2263933206993</v>
+        <v>138.833778711439</v>
       </c>
       <c r="AF2">
-        <v>280.32466135524</v>
+        <v>141.405522676758</v>
       </c>
       <c r="AG2">
-        <v>285.162005736149</v>
+        <v>143.845647663418</v>
       </c>
       <c r="AH2">
-        <v>289.911809659185</v>
+        <v>146.241614194161</v>
       </c>
       <c r="AI2">
-        <v>294.6095053471241</v>
+        <v>148.611295516232</v>
       </c>
       <c r="AJ2">
-        <v>299.2449861261591</v>
+        <v>150.949593471355</v>
       </c>
       <c r="AK2">
-        <v>303.7161178267884</v>
+        <v>153.20498802718</v>
       </c>
       <c r="AL2">
-        <v>308.0170880843074</v>
+        <v>155.37454722451</v>
       </c>
       <c r="AM2">
-        <v>312.1603539551328</v>
+        <v>157.464554836471</v>
       </c>
       <c r="AN2">
-        <v>316.2491742626345</v>
+        <v>159.527098209995</v>
       </c>
       <c r="AO2">
-        <v>320.2695260216867</v>
+        <v>161.555103662975</v>
       </c>
       <c r="AP2">
-        <v>324.1656351791029</v>
+        <v>163.520436820417</v>
       </c>
       <c r="AQ2">
-        <v>327.9742134497517</v>
+        <v>165.441616349941</v>
       </c>
       <c r="AR2">
-        <v>331.6723705170368</v>
+        <v>167.307095578604</v>
       </c>
       <c r="AS2">
-        <v>335.2743792261344</v>
+        <v>169.124074226625</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -716,112 +716,112 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="K3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="L3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="M3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="N3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="O3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="P3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="Q3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="R3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="S3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="T3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="U3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="V3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="W3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="X3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="Y3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="Z3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AA3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AB3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AC3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AD3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AE3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AF3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AG3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AH3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AI3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AJ3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AK3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AL3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AM3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AN3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AO3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AP3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AQ3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AR3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
       <c r="AS3">
-        <v>3293275.482055868</v>
+        <v>8807000</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="K4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="L4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="M4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="N4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="O4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="P4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="Q4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="R4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="S4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="T4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="U4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="V4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="W4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="X4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="Y4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="Z4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AA4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AB4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AC4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AD4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AE4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AF4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AG4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AH4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AI4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AJ4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AK4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AL4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AM4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AN4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AO4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AP4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AQ4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AR4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
       <c r="AS4">
-        <v>0.006956065447303082</v>
+        <v>0.02459947708263825</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="K5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="L5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="M5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="N5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="O5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="P5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="Q5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="R5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="S5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="T5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="U5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="V5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="W5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="X5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="Y5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="Z5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AA5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AB5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AC5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AD5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AE5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AF5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AG5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AH5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AI5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AJ5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AK5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AL5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AM5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AN5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AO5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AP5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AQ5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AR5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
       <c r="AS5">
-        <v>-0.05882806055670407</v>
+        <v>-0.09279899690632952</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1573,112 +1573,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="K10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="L10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="M10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="N10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="O10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="P10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="Q10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="R10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="S10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="T10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="U10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="V10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="W10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="X10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="Y10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="Z10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AA10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AB10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AC10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AD10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AE10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AF10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AG10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AH10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AI10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AJ10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AK10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AL10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AM10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AN10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AO10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AP10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AQ10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AR10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
       <c r="AS10">
-        <v>4.018341099168544</v>
+        <v>2.895</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1695,112 +1695,112 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>336380.9537287846</v>
+        <v>1791084.47265</v>
       </c>
       <c r="K11">
-        <v>333032.3864950308</v>
+        <v>1773254.78666</v>
       </c>
       <c r="L11">
-        <v>329186.4740212346</v>
+        <v>1752776.95033</v>
       </c>
       <c r="M11">
-        <v>324150.164207067</v>
+        <v>1725960.75813</v>
       </c>
       <c r="N11">
-        <v>318087.1361699566</v>
+        <v>1693677.73124</v>
       </c>
       <c r="O11">
-        <v>313575.9155724603</v>
+        <v>1669657.41417</v>
       </c>
       <c r="P11">
-        <v>308492.7790744503</v>
+        <v>1642591.88993914</v>
       </c>
       <c r="Q11">
-        <v>304210.8466672682</v>
+        <v>1619792.43425526</v>
       </c>
       <c r="R11">
-        <v>301463.5262779901</v>
+        <v>1605164.13013731</v>
       </c>
       <c r="S11">
-        <v>298820.8797302039</v>
+        <v>1591093.16938292</v>
       </c>
       <c r="T11">
-        <v>295778.1032942305</v>
+        <v>1574891.68839</v>
       </c>
       <c r="U11">
-        <v>292782.0117640906</v>
+        <v>1558938.78452078</v>
       </c>
       <c r="V11">
-        <v>289798.061314612</v>
+        <v>1543050.52670483</v>
       </c>
       <c r="W11">
-        <v>286826.2081013473</v>
+        <v>1527226.68148925</v>
       </c>
       <c r="X11">
-        <v>283866.4079354268</v>
+        <v>1511467.01358724</v>
       </c>
       <c r="Y11">
-        <v>280918.5413614563</v>
+        <v>1495770.88695</v>
       </c>
       <c r="Z11">
-        <v>278019.0182989752</v>
+        <v>1480332.16880103</v>
       </c>
       <c r="AA11">
-        <v>275130.5717024753</v>
+        <v>1464952.42808824</v>
       </c>
       <c r="AB11">
-        <v>272253.3065693427</v>
+        <v>1449632.22387773</v>
       </c>
       <c r="AC11">
-        <v>269386.9586678576</v>
+        <v>1434370.14924879</v>
       </c>
       <c r="AD11">
-        <v>266531.6317807509</v>
+        <v>1419166.7568</v>
       </c>
       <c r="AE11">
-        <v>263725.6955498825</v>
+        <v>1404226.34843667</v>
       </c>
       <c r="AF11">
-        <v>260930.0456085779</v>
+        <v>1389340.71015861</v>
       </c>
       <c r="AG11">
-        <v>258144.6400764781</v>
+        <v>1374509.61897085</v>
       </c>
       <c r="AH11">
-        <v>255369.5072960549</v>
+        <v>1359733.22578491</v>
       </c>
       <c r="AI11">
-        <v>252604.5330513984</v>
+        <v>1345010.92245</v>
       </c>
       <c r="AJ11">
-        <v>249889.8307236982</v>
+        <v>1330556.29553634</v>
       </c>
       <c r="AK11">
-        <v>247184.5724036229</v>
+        <v>1316151.95391746</v>
       </c>
       <c r="AL11">
-        <v>244488.6455401477</v>
+        <v>1301797.29830737</v>
       </c>
       <c r="AM11">
-        <v>241802.0072865374</v>
+        <v>1287492.10056556</v>
       </c>
       <c r="AN11">
-        <v>239124.6143769582</v>
+        <v>1273236.13032</v>
       </c>
       <c r="AO11">
-        <v>236498.7520902527</v>
+        <v>1259254.53856547</v>
       </c>
       <c r="AP11">
-        <v>233881.3826617631</v>
+        <v>1245318.16764259</v>
       </c>
       <c r="AQ11">
-        <v>231272.4625922847</v>
+        <v>1231426.78593673</v>
       </c>
       <c r="AR11">
-        <v>228671.8821252879</v>
+        <v>1217579.80904139</v>
       </c>
       <c r="AS11">
-        <v>226079.7289379541</v>
+        <v>1203777.7038</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1817,112 +1817,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>2628706.252276317</v>
+        <v>2293952.52735</v>
       </c>
       <c r="K12">
-        <v>2628901.846266925</v>
+        <v>2294123.21334</v>
       </c>
       <c r="L12">
-        <v>2626610.947054323</v>
+        <v>2292124.04967</v>
       </c>
       <c r="M12">
-        <v>2616109.875837149</v>
+        <v>2282960.24187</v>
       </c>
       <c r="N12">
-        <v>2598279.254622524</v>
+        <v>2267400.26876</v>
       </c>
       <c r="O12">
-        <v>2594215.008531215</v>
+        <v>2263853.58583</v>
       </c>
       <c r="P12">
-        <v>2578837.244852138</v>
+        <v>2250434.11006086</v>
       </c>
       <c r="Q12">
-        <v>2569759.719130399</v>
+        <v>2242512.56574474</v>
       </c>
       <c r="R12">
-        <v>2573446.520556974</v>
+        <v>2245729.86986269</v>
       </c>
       <c r="S12">
-        <v>2577970.602461491</v>
+        <v>2249677.83061708</v>
       </c>
       <c r="T12">
-        <v>2578957.79833643</v>
+        <v>2250539.31161</v>
       </c>
       <c r="U12">
-        <v>2579730.044184298</v>
+        <v>2251213.21547922</v>
       </c>
       <c r="V12">
-        <v>2580498.11191474</v>
+        <v>2251883.47329517</v>
       </c>
       <c r="W12">
-        <v>2581262.269048158</v>
+        <v>2252550.31851075</v>
       </c>
       <c r="X12">
-        <v>2582022.785206469</v>
+        <v>2253213.98641276</v>
       </c>
       <c r="Y12">
-        <v>2582779.243327515</v>
+        <v>2253874.11305</v>
       </c>
       <c r="Z12">
-        <v>2583309.485377748</v>
+        <v>2254336.83119897</v>
       </c>
       <c r="AA12">
-        <v>2583839.753284512</v>
+        <v>2254799.57191176</v>
       </c>
       <c r="AB12">
-        <v>2584371.698255453</v>
+        <v>2255263.77612227</v>
       </c>
       <c r="AC12">
-        <v>2584903.494735141</v>
+        <v>2255727.85075121</v>
       </c>
       <c r="AD12">
-        <v>2585436.801342541</v>
+        <v>2256193.2432</v>
       </c>
       <c r="AE12">
-        <v>2585736.356712984</v>
+        <v>2256454.65156334</v>
       </c>
       <c r="AF12">
-        <v>2586039.613335694</v>
+        <v>2256719.28984139</v>
       </c>
       <c r="AG12">
-        <v>2586346.826747063</v>
+        <v>2256987.38102915</v>
       </c>
       <c r="AH12">
-        <v>2586658.969942016</v>
+        <v>2257259.77421509</v>
       </c>
       <c r="AI12">
-        <v>2586975.593889261</v>
+        <v>2257536.07755</v>
       </c>
       <c r="AJ12">
-        <v>2587050.79765926</v>
+        <v>2257601.70446366</v>
       </c>
       <c r="AK12">
-        <v>2587134.841932105</v>
+        <v>2257675.04608254</v>
       </c>
       <c r="AL12">
-        <v>2587227.267518074</v>
+        <v>2257755.70169263</v>
       </c>
       <c r="AM12">
-        <v>2587328.335849945</v>
+        <v>2257843.89943444</v>
       </c>
       <c r="AN12">
-        <v>2587438.310917663</v>
+        <v>2257939.86968</v>
       </c>
       <c r="AO12">
-        <v>2587299.185713397</v>
+        <v>2257818.46143453</v>
       </c>
       <c r="AP12">
-        <v>2587172.412668514</v>
+        <v>2257707.83235741</v>
       </c>
       <c r="AQ12">
-        <v>2587058.257196888</v>
+        <v>2257608.21406327</v>
       </c>
       <c r="AR12">
-        <v>2586956.243057961</v>
+        <v>2257519.19095861</v>
       </c>
       <c r="AS12">
-        <v>2586868.127139993</v>
+        <v>2257442.2962</v>
       </c>
     </row>
   </sheetData>

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="K4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="L4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="M4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="N4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="O4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="P4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="Q4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="R4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="S4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="T4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="U4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="V4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="W4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="X4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="Y4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="Z4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AA4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AB4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AC4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AD4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AE4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AF4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AG4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AH4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AI4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AJ4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AK4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AL4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AM4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AN4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AO4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AP4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AQ4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AR4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
       <c r="AS4">
-        <v>0.02459947708263825</v>
+        <v>0.8501523090738761</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="K5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="L5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="M5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="N5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="O5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="P5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="Q5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="R5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="S5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="T5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="U5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="V5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="W5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="X5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="Y5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="Z5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AA5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AB5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AC5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AD5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AE5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AF5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AG5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AH5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AI5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AJ5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AK5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AL5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AM5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AN5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AO5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AP5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AQ5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AR5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
       <c r="AS5">
-        <v>-0.09279899690632952</v>
+        <v>-0.05359753014188649</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="K4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="L4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="M4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="N4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="O4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="P4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="Q4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="R4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="S4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="T4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="U4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="V4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="W4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="X4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="Y4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="Z4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AA4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AB4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AC4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AD4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AE4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AF4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AG4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AH4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AI4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AJ4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AK4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AL4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AM4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AN4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AO4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AP4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AQ4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AR4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
       <c r="AS4">
-        <v>0.8501523090738761</v>
+        <v>1.763950883616743</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="K5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="L5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="M5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="N5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="O5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="P5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="Q5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="R5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="S5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="T5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="U5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="V5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="W5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="X5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="Y5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="Z5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AA5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AB5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AC5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AD5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AE5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AF5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AG5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AH5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AI5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AJ5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AK5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AL5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AM5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AN5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AO5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AP5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AQ5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AR5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
       <c r="AS5">
-        <v>-0.05359753014188649</v>
+        <v>-0.0999897460314044</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="K4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="L4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="M4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="N4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="O4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="P4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="Q4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="R4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="S4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="T4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="U4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="V4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="W4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="X4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="Y4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="Z4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AA4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AB4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AC4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AD4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AE4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AF4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AG4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AH4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AI4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AJ4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AK4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AL4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AM4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AN4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AO4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AP4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AQ4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AR4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
       <c r="AS4">
-        <v>1.763950883616743</v>
+        <v>1.876307901891696</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="K5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="L5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="M5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="N5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="O5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="P5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="Q5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="R5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="S5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="T5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="U5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="V5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="W5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="X5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="Y5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="Z5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AA5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AB5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AC5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AD5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AE5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AF5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AG5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AH5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AI5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AJ5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AK5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AL5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AM5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AN5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AO5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AP5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AQ5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AR5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
       <c r="AS5">
-        <v>-0.0999897460314044</v>
+        <v>-0.0457973259533101</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="K4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="L4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="M4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="N4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="O4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="P4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="Q4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="R4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="S4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="T4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="U4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="V4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="W4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="X4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="Y4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="Z4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AA4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AB4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AC4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AD4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AE4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AF4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AG4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AH4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AI4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AJ4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AK4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AL4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AM4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AN4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AO4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AP4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AQ4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AR4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
       <c r="AS4">
-        <v>1.876307901891696</v>
+        <v>1.226764611677702</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="K5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="L5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="M5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="N5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="O5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="P5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="Q5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="R5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="S5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="T5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="U5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="V5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="W5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="X5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="Y5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="Z5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AA5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AB5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AC5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AD5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AE5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AF5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AG5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AH5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AI5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AJ5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AK5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AL5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AM5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AN5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AO5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AP5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AQ5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AR5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
       <c r="AS5">
-        <v>-0.0457973259533101</v>
+        <v>-0.01653837460962796</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="K4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="L4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="M4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="N4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="O4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="P4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="Q4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="R4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="S4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="T4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="U4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="V4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="W4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="X4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="Y4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="Z4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AA4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AB4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AC4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AD4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AE4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AF4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AG4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AH4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AI4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AJ4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AK4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AL4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AM4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AN4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AO4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AP4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AQ4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AR4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
       <c r="AS4">
-        <v>1.226764611677702</v>
+        <v>0.4135999444052596</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="K5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="L5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="M5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="N5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="O5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="P5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="Q5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="R5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="S5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="T5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="U5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="V5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="W5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="X5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="Y5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="Z5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AA5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AB5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AC5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AD5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AE5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AF5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AG5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AH5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AI5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AJ5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AK5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AL5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AM5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AN5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AO5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AP5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AQ5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AR5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
       <c r="AS5">
-        <v>-0.01653837460962796</v>
+        <v>-0.3685992462896238</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="K4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="L4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="M4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="N4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="O4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="P4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="Q4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="R4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="S4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="T4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="U4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="V4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="W4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="X4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="Y4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="Z4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AA4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AB4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AC4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AD4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AE4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AF4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AG4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AH4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AI4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AJ4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AK4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AL4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AM4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AN4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AO4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AP4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AQ4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AR4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
       <c r="AS4">
-        <v>0.4135999444052596</v>
+        <v>0.2830646919372696</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="K5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="L5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="M5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="N5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="O5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="P5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="Q5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="R5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="S5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="T5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="U5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="V5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="W5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="X5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="Y5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="Z5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AA5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AB5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AC5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AD5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AE5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AF5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AG5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AH5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AI5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AJ5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AK5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AL5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AM5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AN5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AO5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AP5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AQ5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AR5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
       <c r="AS5">
-        <v>-0.3685992462896238</v>
+        <v>-0.03863147610686637</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="K4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="L4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="M4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="N4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="O4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="P4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="Q4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="R4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="S4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="T4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="U4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="V4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="W4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="X4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="Y4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="Z4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AA4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AB4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AC4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AD4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AE4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AF4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AG4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AH4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AI4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AJ4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AK4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AL4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AM4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AN4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AO4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AP4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AQ4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AR4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
       <c r="AS4">
-        <v>0.2830646919372696</v>
+        <v>1.278168199541466</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="K5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="L5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="M5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="N5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="O5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="P5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="Q5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="R5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="S5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="T5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="U5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="V5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="W5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="X5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="Y5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="Z5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AA5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AB5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AC5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AD5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AE5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AF5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AG5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AH5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AI5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AJ5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AK5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AL5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AM5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AN5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AO5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AP5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AQ5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AR5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
       <c r="AS5">
-        <v>-0.03863147610686637</v>
+        <v>-0.1226743448383329</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="K4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="L4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="M4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="N4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="O4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="P4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="Q4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="R4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="S4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="T4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="U4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="V4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="W4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="X4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="Y4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="Z4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AA4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AB4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AC4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AD4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AE4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AF4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AG4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AH4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AI4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AJ4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AK4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AL4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AM4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AN4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AO4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AP4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AQ4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AR4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
       <c r="AS4">
-        <v>1.278168199541466</v>
+        <v>0.6792284172753689</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="K5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="L5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="M5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="N5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="O5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="P5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="Q5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="R5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="S5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="T5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="U5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="V5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="W5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="X5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="Y5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="Z5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AA5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AB5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AC5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AD5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AE5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AF5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AG5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AH5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AI5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AJ5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AK5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AL5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AM5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AN5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AO5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AP5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AQ5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AR5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
       <c r="AS5">
-        <v>-0.1226743448383329</v>
+        <v>-0.06758354484165947</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="K4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="L4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="M4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="N4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="O4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="P4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="Q4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="R4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="S4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="T4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="U4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="V4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="W4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="X4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="Y4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="Z4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AA4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AB4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AC4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AD4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AE4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AF4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AG4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AH4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AI4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AJ4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AK4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AL4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AM4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AN4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AO4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AP4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AQ4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AR4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
       <c r="AS4">
-        <v>0.6792284172753689</v>
+        <v>1.83541777048312</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="K5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="L5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="M5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="N5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="O5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="P5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="Q5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="R5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="S5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="T5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="U5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="V5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="W5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="X5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="Y5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="Z5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AA5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AB5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AC5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AD5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AE5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AF5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AG5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AH5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AI5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AJ5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AK5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AL5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AM5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AN5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AO5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AP5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AQ5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AR5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
       <c r="AS5">
-        <v>-0.06758354484165947</v>
+        <v>-0.138666235095538</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="K4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="L4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="M4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="N4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="O4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="P4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="Q4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="R4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="S4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="T4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="U4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="V4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="W4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="X4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="Y4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="Z4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AA4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AB4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AC4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AD4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AE4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AF4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AG4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AH4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AI4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AJ4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AK4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AL4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AM4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AN4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AO4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AP4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AQ4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AR4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
       <c r="AS4">
-        <v>1.83541777048312</v>
+        <v>0.3142625113544965</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="K5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="L5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="M5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="N5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="O5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="P5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="Q5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="R5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="S5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="T5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="U5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="V5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="W5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="X5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="Y5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="Z5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AA5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AB5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AC5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AD5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AE5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AF5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AG5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AH5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AI5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AJ5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AK5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AL5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AM5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AN5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AO5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AP5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AQ5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AR5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
       <c r="AS5">
-        <v>-0.138666235095538</v>
+        <v>-0.07815492933251093</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="K4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="L4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="M4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="N4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="O4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="P4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="Q4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="R4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="S4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="T4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="U4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="V4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="W4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="X4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="Y4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="Z4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AA4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AB4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AC4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AD4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AE4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AF4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AG4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AH4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AI4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AJ4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AK4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AL4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AM4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AN4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AO4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AP4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AQ4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AR4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
       <c r="AS4">
-        <v>0.3142625113544965</v>
+        <v>1.016025614293143</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="K5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="L5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="M5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="N5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="O5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="P5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="Q5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="R5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="S5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="T5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="U5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="V5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="W5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="X5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="Y5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="Z5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AA5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AB5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AC5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AD5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AE5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AF5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AG5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AH5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AI5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AJ5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AK5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AL5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AM5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AN5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AO5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AP5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AQ5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AR5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
       <c r="AS5">
-        <v>-0.07815492933251093</v>
+        <v>-0.1315854458144212</v>
       </c>
     </row>
     <row r="6" spans="1:45">

--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_se_calibrated.xlsx
@@ -838,112 +838,112 @@
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="K4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="L4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="M4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="N4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="O4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="P4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="Q4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="R4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="S4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="T4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="U4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="V4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="W4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="X4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="Y4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="Z4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AA4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AB4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AC4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AD4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AE4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AF4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AG4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AH4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AI4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AJ4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AK4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AL4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AM4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AN4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AO4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AP4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AQ4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AR4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
       <c r="AS4">
-        <v>1.016025614293143</v>
+        <v>0.6193541768728235</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -960,112 +960,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="K5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="L5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="M5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="N5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="O5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="P5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="Q5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="R5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="S5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="T5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="U5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="V5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="W5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="X5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="Y5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="Z5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AA5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AB5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AC5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AD5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AE5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AF5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AG5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AH5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AI5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AJ5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AK5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AL5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AM5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AN5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AO5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AP5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AQ5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AR5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
       <c r="AS5">
-        <v>-0.1315854458144212</v>
+        <v>-0.07866934995703223</v>
       </c>
     </row>
     <row r="6" spans="1:45">
